--- a/data/sotsuron_data.xlsx
+++ b/data/sotsuron_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac-2101/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE4142D-A7DA-2440-ADDF-53083895CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286E7C2-D5E7-CD4E-A167-DC035A6233B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="28300" windowHeight="16280" xr2:uid="{5768D193-F5D2-5349-AE80-81BE7FBA2E30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>WMC</t>
     <phoneticPr fontId="1"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>Speak_Load</t>
+  </si>
+  <si>
+    <t>Participant_ID</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -546,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB67353-A9E3-4B4C-B3A9-2B65C0E8B954}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -565,6 +569,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/data/sotsuron_data.xlsx
+++ b/data/sotsuron_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac-2101/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286E7C2-D5E7-CD4E-A167-DC035A6233B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD66833B-816E-204E-9904-7936842E4A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="28300" windowHeight="16280" xr2:uid="{5768D193-F5D2-5349-AE80-81BE7FBA2E30}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
